--- a/results/IMI_qt_r_K_20_yahoomusic.xlsx
+++ b/results/IMI_qt_r_K_20_yahoomusic.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>efK</t>
   </si>
@@ -35,7 +35,13 @@
     <t>qt</t>
   </si>
   <si>
-    <t>recall</t>
+    <t>n_bridges=1000</t>
+  </si>
+  <si>
+    <t>n_bridges=2000</t>
+  </si>
+  <si>
+    <t>n_bridges=500</t>
   </si>
 </sst>
 </file>
@@ -177,13 +183,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall</c:v>
+                  <c:v>n_bridges=500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -194,11 +200,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -211,160 +217,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.591</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.839</c:v>
+                  <c:v>0.306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.016</c:v>
+                  <c:v>0.438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.144</c:v>
+                  <c:v>0.598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.545</c:v>
+                  <c:v>0.892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.494</c:v>
+                  <c:v>1.404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.688</c:v>
+                  <c:v>1.874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.903</c:v>
+                  <c:v>2.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.078</c:v>
+                  <c:v>3.206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.292</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.493</c:v>
+                  <c:v>4.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.748</c:v>
+                  <c:v>5.614</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.941</c:v>
+                  <c:v>6.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.225</c:v>
+                  <c:v>5.268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.498</c:v>
+                  <c:v>8.706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.739</c:v>
+                  <c:v>10.266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.051</c:v>
+                  <c:v>9.556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.402</c:v>
+                  <c:v>7.492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.763</c:v>
+                  <c:v>7.374</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.075</c:v>
+                  <c:v>7.222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.485</c:v>
+                  <c:v>12.528</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.789</c:v>
+                  <c:v>9.112</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.023</c:v>
+                  <c:v>10.242</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.632</c:v>
+                  <c:v>12.866</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.764</c:v>
+                  <c:v>17.496</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.128</c:v>
+                  <c:v>20.948</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.226</c:v>
+                  <c:v>23.148</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.814</c:v>
+                  <c:v>17.974</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32.021</c:v>
+                  <c:v>19.086</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.139</c:v>
+                  <c:v>20.796</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38.257</c:v>
+                  <c:v>26.638</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.846</c:v>
+                  <c:v>34.442</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.803</c:v>
+                  <c:v>39.546</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68.613</c:v>
+                  <c:v>37.364</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.903</c:v>
+                  <c:v>39.298</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.625</c:v>
+                  <c:v>49.648</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>99.949</c:v>
+                  <c:v>44.452</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>110.349</c:v>
+                  <c:v>44.28</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>120.145</c:v>
+                  <c:v>47.156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>130.789</c:v>
+                  <c:v>50.216</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>141.303</c:v>
+                  <c:v>60.69</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>162.416</c:v>
+                  <c:v>69.098</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>183.043</c:v>
+                  <c:v>93.246</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>269.662</c:v>
+                  <c:v>81.378</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>307.944</c:v>
+                  <c:v>93.334</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>335.143</c:v>
+                  <c:v>84.512</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>364.302</c:v>
+                  <c:v>97.592</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>388.442</c:v>
+                  <c:v>109.712</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>421.851</c:v>
+                  <c:v>112.558</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>449.836</c:v>
+                  <c:v>112.458</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>517.023</c:v>
+                  <c:v>116.46</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>583.1</c:v>
+                  <c:v>123.118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,151 +382,519 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.5853</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7216</c:v>
+                  <c:v>0.6948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7564</c:v>
+                  <c:v>0.8096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7694</c:v>
+                  <c:v>0.8292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7792</c:v>
+                  <c:v>0.8514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7858</c:v>
+                  <c:v>0.8756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7913</c:v>
+                  <c:v>0.8866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7983</c:v>
+                  <c:v>0.894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8017</c:v>
+                  <c:v>0.8998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8064</c:v>
+                  <c:v>0.9014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8106</c:v>
+                  <c:v>0.9048</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8182</c:v>
+                  <c:v>0.9084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.821</c:v>
+                  <c:v>0.9136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8254</c:v>
+                  <c:v>0.9142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.827</c:v>
+                  <c:v>0.9158</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8315</c:v>
+                  <c:v>0.918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.834</c:v>
+                  <c:v>0.9194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8358</c:v>
+                  <c:v>0.923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8425</c:v>
+                  <c:v>0.9252</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8442</c:v>
+                  <c:v>0.928</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8476</c:v>
+                  <c:v>0.9296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8688</c:v>
+                  <c:v>0.9338</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8802</c:v>
+                  <c:v>0.9362</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8887</c:v>
+                  <c:v>0.943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8973</c:v>
+                  <c:v>0.9504</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9001</c:v>
+                  <c:v>0.9662</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9036</c:v>
+                  <c:v>0.9822</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9068</c:v>
+                  <c:v>0.9918</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9094</c:v>
+                  <c:v>0.9962</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9123</c:v>
+                  <c:v>0.9972</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9172</c:v>
+                  <c:v>0.9978</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9347</c:v>
+                  <c:v>0.9984</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9468</c:v>
+                  <c:v>0.9984</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9551</c:v>
+                  <c:v>0.9984</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9659</c:v>
+                  <c:v>0.9986</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.975</c:v>
+                  <c:v>0.9986</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9794</c:v>
+                  <c:v>0.9988</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.984</c:v>
+                  <c:v>0.9988</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9846</c:v>
+                  <c:v>0.9988</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9881</c:v>
+                  <c:v>0.9988</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.991</c:v>
+                  <c:v>0.9988</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.9944</c:v>
+                  <c:v>0.9988</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_yahoomusic!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_yahoomusic!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.686</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.352</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.956</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.482</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.718</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.646</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.784</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.238</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.188</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.884</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.524</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.336</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80.62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.438</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77.182</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79.592</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>101.724</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>113.79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>108.12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108.218</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>115.276</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>130.138</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>137.586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_yahoomusic!$F$2:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9158</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.943</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9824</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9922</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.9966</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9976</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9998</c:v>
+                </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.9975</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.9986</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.9991</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9991</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.9998</c:v>
@@ -530,6 +904,374 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.9998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_yahoomusic!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_yahoomusic!$H$2:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.652</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.704</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.228</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.078</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.954</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.594</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.294</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.552</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.936</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.836</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61.906</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.284</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.444</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.628</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70.56</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78.928</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87.644</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95.214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104.228</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>112.278</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>121.176</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130.102</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>138.942</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147.446</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>156.432</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>166.068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_yahoomusic!$I$2:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9158</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.943</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9824</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9922</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9966</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9976</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1345907440"/>
-        <c:axId val="-1345909760"/>
+        <c:axId val="1592552800"/>
+        <c:axId val="1705220080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1345907440"/>
+        <c:axId val="1592552800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,14 +1403,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1345909760"/>
+        <c:crossAx val="1705220080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1345909760"/>
+        <c:axId val="1705220080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -778,7 +1521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1345907440"/>
+        <c:crossAx val="1592552800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -790,6 +1533,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -828,12 +1603,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1387,16 +2159,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1681,15 +2453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1697,579 +2469,1215 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.59099999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.58530000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.215</v>
+      </c>
+      <c r="E2">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.215</v>
+      </c>
+      <c r="H2">
+        <v>0.19</v>
+      </c>
+      <c r="I2">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.83899999999999997</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="C3">
-        <v>0.72160000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.18</v>
+      </c>
+      <c r="F3">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.33</v>
+      </c>
+      <c r="I3">
+        <v>0.69479999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.016</v>
+        <v>0.438</v>
       </c>
       <c r="C4">
-        <v>0.75639999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.254</v>
+      </c>
+      <c r="F4">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.45</v>
+      </c>
+      <c r="I4">
+        <v>0.80959999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.1439999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C5">
-        <v>0.76939999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.82920000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>1.5449999999999999</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="C6">
-        <v>0.7792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.85140000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>1.494</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="C7">
-        <v>0.78580000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="H7">
+        <v>1.37</v>
+      </c>
+      <c r="I7">
+        <v>0.87560000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8">
-        <v>1.6879999999999999</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="C8">
-        <v>0.7913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="E8">
+        <v>1.042</v>
+      </c>
+      <c r="F8">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="H8">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.88660000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>1.903</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C9">
-        <v>0.79830000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E9">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H9">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41</v>
       </c>
       <c r="B10">
-        <v>2.0779999999999998</v>
+        <v>3.206</v>
       </c>
       <c r="C10">
-        <v>0.80169999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="E10">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="H10">
+        <v>3.01</v>
+      </c>
+      <c r="I10">
+        <v>0.89980000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46</v>
       </c>
       <c r="B11">
-        <v>2.2919999999999998</v>
+        <v>4.08</v>
       </c>
       <c r="C11">
-        <v>0.80640000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="E11">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="H11">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.90139999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>51</v>
       </c>
       <c r="B12">
-        <v>2.4929999999999999</v>
+        <v>4.71</v>
       </c>
       <c r="C12">
-        <v>0.81059999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E12">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="H12">
+        <v>4.41</v>
+      </c>
+      <c r="I12">
+        <v>0.90480000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>56</v>
       </c>
       <c r="B13">
-        <v>2.7480000000000002</v>
+        <v>5.6139999999999999</v>
       </c>
       <c r="C13">
-        <v>0.81820000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.988</v>
+      </c>
+      <c r="F13">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="H13">
+        <v>4.78</v>
+      </c>
+      <c r="I13">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>61</v>
       </c>
       <c r="B14">
-        <v>2.9409999999999998</v>
+        <v>6.32</v>
       </c>
       <c r="C14">
-        <v>0.82099999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="E14">
+        <v>3.3519999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="H14">
+        <v>5.95</v>
+      </c>
+      <c r="I14">
+        <v>0.91359999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66</v>
       </c>
       <c r="B15">
-        <v>3.2250000000000001</v>
+        <v>5.2679999999999998</v>
       </c>
       <c r="C15">
-        <v>0.82540000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="E15">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="H15">
+        <v>6.55</v>
+      </c>
+      <c r="I15">
+        <v>0.91420000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>71</v>
       </c>
       <c r="B16">
-        <v>3.4980000000000002</v>
+        <v>8.7059999999999995</v>
       </c>
       <c r="C16">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="E16">
+        <v>4.1859999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="H16">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.91579999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17">
-        <v>3.7389999999999999</v>
+        <v>10.266</v>
       </c>
       <c r="C17">
-        <v>0.83150000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E17">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="F17">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H17">
+        <v>6.6520000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
       <c r="B18">
-        <v>4.0510000000000002</v>
+        <v>9.5559999999999992</v>
       </c>
       <c r="C18">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9194</v>
+      </c>
+      <c r="E18">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.9194</v>
+      </c>
+      <c r="H18">
+        <v>6.7039999999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.9194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>86</v>
       </c>
       <c r="B19">
-        <v>4.4020000000000001</v>
+        <v>7.492</v>
       </c>
       <c r="C19">
-        <v>0.83579999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E19">
+        <v>5.3840000000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H19">
+        <v>9.2279999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>91</v>
       </c>
       <c r="B20">
-        <v>4.7629999999999999</v>
+        <v>7.3739999999999997</v>
       </c>
       <c r="C20">
-        <v>0.84250000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="E20">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="H20">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="I20">
+        <v>0.92520000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
       <c r="B21">
-        <v>5.0750000000000002</v>
+        <v>7.2220000000000004</v>
       </c>
       <c r="C21">
-        <v>0.84419999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E21">
+        <v>5.9560000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H21">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I21">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22">
-        <v>5.4850000000000003</v>
+        <v>12.528</v>
       </c>
       <c r="C22">
-        <v>0.84760000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="E22">
+        <v>6.38</v>
+      </c>
+      <c r="F22">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="H22">
+        <v>8.0779999999999994</v>
+      </c>
+      <c r="I22">
+        <v>0.92959999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>120</v>
       </c>
       <c r="B23">
-        <v>7.7889999999999997</v>
+        <v>9.1120000000000001</v>
       </c>
       <c r="C23">
-        <v>0.86880000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="E23">
+        <v>8.452</v>
+      </c>
+      <c r="F23">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="H23">
+        <v>8.83</v>
+      </c>
+      <c r="I23">
+        <v>0.93379999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>140</v>
       </c>
       <c r="B24">
-        <v>11.023</v>
+        <v>10.242000000000001</v>
       </c>
       <c r="C24">
-        <v>0.88019999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="E24">
+        <v>9.44</v>
+      </c>
+      <c r="F24">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="H24">
+        <v>12.821999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.93620000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>160</v>
       </c>
       <c r="B25">
-        <v>14.632</v>
+        <v>12.866</v>
       </c>
       <c r="C25">
-        <v>0.88870000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E25">
+        <v>14.481999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H25">
+        <v>14.502000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>180</v>
       </c>
       <c r="B26">
-        <v>17.763999999999999</v>
+        <v>17.495999999999999</v>
       </c>
       <c r="C26">
-        <v>0.89729999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="E26">
+        <v>13.718</v>
+      </c>
+      <c r="F26">
+        <v>0.9506</v>
+      </c>
+      <c r="H26">
+        <v>16.344000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.9506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>200</v>
       </c>
       <c r="B27">
-        <v>21.128</v>
+        <v>20.948</v>
       </c>
       <c r="C27">
-        <v>0.90010000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="E27">
+        <v>15.512</v>
+      </c>
+      <c r="F27">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="H27">
+        <v>15.954000000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.96640000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>220</v>
       </c>
       <c r="B28">
-        <v>24.225999999999999</v>
+        <v>23.148</v>
       </c>
       <c r="C28">
-        <v>0.90359999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="E28">
+        <v>20.646000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="H28">
+        <v>20.463999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.98240000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>240</v>
       </c>
       <c r="B29">
-        <v>27.814</v>
+        <v>17.974</v>
       </c>
       <c r="C29">
-        <v>0.90680000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="E29">
+        <v>21.783999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="H29">
+        <v>20.594000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>260</v>
       </c>
       <c r="B30">
-        <v>32.021000000000001</v>
+        <v>19.085999999999999</v>
       </c>
       <c r="C30">
-        <v>0.90939999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E30">
+        <v>22.238</v>
+      </c>
+      <c r="F30">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="H30">
+        <v>26.236000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>280</v>
       </c>
       <c r="B31">
-        <v>35.139000000000003</v>
+        <v>20.795999999999999</v>
       </c>
       <c r="C31">
-        <v>0.9123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="E31">
+        <v>23.187999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="H31">
+        <v>30.422000000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
       <c r="B32">
-        <v>38.256999999999998</v>
+        <v>26.638000000000002</v>
       </c>
       <c r="C32">
-        <v>0.91720000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="E32">
+        <v>25.55</v>
+      </c>
+      <c r="F32">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H32">
+        <v>28.294</v>
+      </c>
+      <c r="I32">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>350</v>
       </c>
       <c r="B33">
-        <v>48.845999999999997</v>
+        <v>34.442</v>
       </c>
       <c r="C33">
-        <v>0.93469999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E33">
+        <v>41.884</v>
+      </c>
+      <c r="F33">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H33">
+        <v>34.552</v>
+      </c>
+      <c r="I33">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>400</v>
       </c>
       <c r="B34">
-        <v>58.802999999999997</v>
+        <v>39.545999999999999</v>
       </c>
       <c r="C34">
-        <v>0.94679999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E34">
+        <v>33.886000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H34">
+        <v>38.652000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>450</v>
       </c>
       <c r="B35">
-        <v>68.613</v>
+        <v>37.363999999999997</v>
       </c>
       <c r="C35">
-        <v>0.95509999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E35">
+        <v>39.118000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H35">
+        <v>42.91</v>
+      </c>
+      <c r="I35">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>500</v>
       </c>
       <c r="B36">
-        <v>78.903000000000006</v>
+        <v>39.298000000000002</v>
       </c>
       <c r="C36">
-        <v>0.96589999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E36">
+        <v>41.432000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H36">
+        <v>50.936</v>
+      </c>
+      <c r="I36">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>550</v>
       </c>
       <c r="B37">
-        <v>89.625</v>
+        <v>49.648000000000003</v>
       </c>
       <c r="C37">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E37">
+        <v>44.524000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H37">
+        <v>60.835999999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>600</v>
       </c>
       <c r="B38">
-        <v>99.948999999999998</v>
+        <v>44.451999999999998</v>
       </c>
       <c r="C38">
-        <v>0.97940000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E38">
+        <v>48.293999999999997</v>
+      </c>
+      <c r="F38">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H38">
+        <v>61.905999999999999</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>650</v>
       </c>
       <c r="B39">
-        <v>110.349</v>
+        <v>44.28</v>
       </c>
       <c r="C39">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E39">
+        <v>71.963999999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H39">
+        <v>63.283999999999999</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>700</v>
       </c>
       <c r="B40">
-        <v>120.145</v>
+        <v>47.155999999999999</v>
       </c>
       <c r="C40">
-        <v>0.98460000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E40">
+        <v>66.335999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H40">
+        <v>69.444000000000003</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>750</v>
       </c>
       <c r="B41">
-        <v>130.78899999999999</v>
+        <v>50.216000000000001</v>
       </c>
       <c r="C41">
-        <v>0.98809999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E41">
+        <v>80.62</v>
+      </c>
+      <c r="F41">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H41">
+        <v>67.628</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>800</v>
       </c>
       <c r="B42">
-        <v>141.303</v>
+        <v>60.69</v>
       </c>
       <c r="C42">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E42">
+        <v>67.438000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H42">
+        <v>70.56</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>900</v>
       </c>
       <c r="B43">
-        <v>162.416</v>
+        <v>69.097999999999999</v>
       </c>
       <c r="C43">
-        <v>0.99439999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E43">
+        <v>80.8</v>
+      </c>
+      <c r="F43">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H43">
+        <v>78.927999999999997</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1000</v>
       </c>
       <c r="B44">
-        <v>183.04300000000001</v>
+        <v>93.245999999999995</v>
       </c>
       <c r="C44">
-        <v>0.99660000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E44">
+        <v>77.182000000000002</v>
+      </c>
+      <c r="F44">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H44">
+        <v>87.644000000000005</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1100</v>
       </c>
       <c r="B45">
-        <v>269.66199999999998</v>
+        <v>81.378</v>
       </c>
       <c r="C45">
-        <v>0.99750000000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E45">
+        <v>79.591999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H45">
+        <v>95.213999999999999</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1200</v>
       </c>
       <c r="B46">
-        <v>307.94400000000002</v>
+        <v>93.334000000000003</v>
       </c>
       <c r="C46">
-        <v>0.99860000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E46">
+        <v>101.724</v>
+      </c>
+      <c r="F46">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H46">
+        <v>104.22799999999999</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1300</v>
       </c>
       <c r="B47">
-        <v>335.14299999999997</v>
+        <v>84.512</v>
       </c>
       <c r="C47">
-        <v>0.99909999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E47">
+        <v>113.79</v>
+      </c>
+      <c r="F47">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H47">
+        <v>112.27800000000001</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1400</v>
       </c>
       <c r="B48">
-        <v>364.30200000000002</v>
+        <v>97.591999999999999</v>
       </c>
       <c r="C48">
-        <v>0.99909999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E48">
+        <v>108.12</v>
+      </c>
+      <c r="F48">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H48">
+        <v>121.176</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1500</v>
       </c>
       <c r="B49">
-        <v>388.44200000000001</v>
+        <v>109.712</v>
       </c>
       <c r="C49">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E49">
+        <v>108.218</v>
+      </c>
+      <c r="F49">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H49">
+        <v>130.102</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1600</v>
       </c>
       <c r="B50">
-        <v>421.851</v>
+        <v>112.55800000000001</v>
       </c>
       <c r="C50">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E50">
+        <v>115.276</v>
+      </c>
+      <c r="F50">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H50">
+        <v>138.94200000000001</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1700</v>
       </c>
       <c r="B51">
-        <v>449.83600000000001</v>
+        <v>112.458</v>
       </c>
       <c r="C51">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E51">
+        <v>122.49</v>
+      </c>
+      <c r="F51">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>147.446</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1800</v>
       </c>
       <c r="B52">
-        <v>517.02300000000002</v>
+        <v>116.46</v>
       </c>
       <c r="C52">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E52">
+        <v>130.13800000000001</v>
+      </c>
+      <c r="F52">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>156.43199999999999</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1900</v>
       </c>
       <c r="B53">
-        <v>583.1</v>
+        <v>123.11799999999999</v>
       </c>
       <c r="C53">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E53">
+        <v>137.58600000000001</v>
+      </c>
+      <c r="F53">
         <v>0.99980000000000002</v>
+      </c>
+      <c r="H53">
+        <v>166.06800000000001</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/IMI_qt_r_K_20_yahoomusic.xlsx
+++ b/results/IMI_qt_r_K_20_yahoomusic.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>efK</t>
   </si>
@@ -35,13 +35,16 @@
     <t>qt</t>
   </si>
   <si>
-    <t>n_bridges=1000</t>
+    <t>Basic</t>
   </si>
   <si>
-    <t>n_bridges=2000</t>
+    <t>n_bridges=10</t>
   </si>
   <si>
-    <t>n_bridges=500</t>
+    <t>n_bridges=50</t>
+  </si>
+  <si>
+    <t>n_bridges=100</t>
   </si>
 </sst>
 </file>
@@ -170,9 +173,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.105963330670623"/>
+          <c:y val="0.14211356466877"/>
+          <c:w val="0.68721949611371"/>
+          <c:h val="0.665247273901488"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -183,14 +196,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n_bridges=500</c:v>
+                  <c:v>Basic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -212,335 +227,245 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qt_r_K_20_yahoomusic!$B$2:$B$53</c:f>
+              <c:f>qt_r_K_20_yahoomusic!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.306</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.438</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.598</c:v>
+                  <c:v>0.357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.892</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.404</c:v>
+                  <c:v>0.574</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.874</c:v>
+                  <c:v>0.768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.45</c:v>
+                  <c:v>1.046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.206</c:v>
+                  <c:v>1.406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.08</c:v>
+                  <c:v>1.768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.71</c:v>
+                  <c:v>2.154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.614</c:v>
+                  <c:v>2.645</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.32</c:v>
+                  <c:v>3.059</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.268</c:v>
+                  <c:v>3.465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.706</c:v>
+                  <c:v>3.972</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.266</c:v>
+                  <c:v>4.386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.556</c:v>
+                  <c:v>4.844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.492</c:v>
+                  <c:v>5.271</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.374</c:v>
+                  <c:v>5.569</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.222</c:v>
+                  <c:v>5.876</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.528</c:v>
+                  <c:v>6.129</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.112</c:v>
+                  <c:v>7.445</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.242</c:v>
+                  <c:v>8.496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.866</c:v>
+                  <c:v>9.49</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.496</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.948</c:v>
+                  <c:v>11.362</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.148</c:v>
+                  <c:v>12.292</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.974</c:v>
+                  <c:v>13.185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.086</c:v>
+                  <c:v>14.123</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.796</c:v>
+                  <c:v>15.004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.638</c:v>
+                  <c:v>15.874</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34.442</c:v>
+                  <c:v>18.097</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.546</c:v>
+                  <c:v>20.241</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.364</c:v>
+                  <c:v>22.438</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.298</c:v>
+                  <c:v>24.66</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49.648</c:v>
+                  <c:v>28.757</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44.452</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44.28</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>47.156</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50.216</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>60.69</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>69.098</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>93.246</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>81.378</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>93.334</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>84.512</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>97.592</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>109.712</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>112.558</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>112.458</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>116.46</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.118</c:v>
+                  <c:v>29.319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qt_r_K_20_yahoomusic!$C$2:$C$53</c:f>
+              <c:f>qt_r_K_20_yahoomusic!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.1824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6948</c:v>
+                  <c:v>0.5062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8096</c:v>
+                  <c:v>0.563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8292</c:v>
+                  <c:v>0.6017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8514</c:v>
+                  <c:v>0.6935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8756</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8866</c:v>
+                  <c:v>0.7873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.894</c:v>
+                  <c:v>0.8064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8998</c:v>
+                  <c:v>0.8297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9014</c:v>
+                  <c:v>0.8402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9048</c:v>
+                  <c:v>0.8501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9084</c:v>
+                  <c:v>0.8564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9136</c:v>
+                  <c:v>0.8589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9142</c:v>
+                  <c:v>0.8601</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9158</c:v>
+                  <c:v>0.8631</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.918</c:v>
+                  <c:v>0.8676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.8698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.923</c:v>
+                  <c:v>0.8699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9252</c:v>
+                  <c:v>0.8706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.928</c:v>
+                  <c:v>0.8731</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9296</c:v>
+                  <c:v>0.8753</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9338</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9362</c:v>
+                  <c:v>0.8755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.943</c:v>
+                  <c:v>0.8757</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9504</c:v>
+                  <c:v>0.8758</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9662</c:v>
+                  <c:v>0.8761</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9822</c:v>
+                  <c:v>0.8769</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9918</c:v>
+                  <c:v>0.877</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9962</c:v>
+                  <c:v>0.8776</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9972</c:v>
+                  <c:v>0.878</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9978</c:v>
+                  <c:v>0.8781</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9984</c:v>
+                  <c:v>0.8792</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9984</c:v>
+                  <c:v>0.8797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9984</c:v>
+                  <c:v>0.8801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9986</c:v>
+                  <c:v>0.8801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.9986</c:v>
+                  <c:v>0.8801</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.9988</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.9988</c:v>
+                  <c:v>0.8803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -551,14 +476,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n_bridges=1000</c:v>
+                  <c:v>n_bridges=10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -580,335 +507,245 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qt_r_K_20_yahoomusic!$E$2:$E$53</c:f>
+              <c:f>qt_r_K_20_yahoomusic!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.116</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.254</c:v>
+                  <c:v>0.235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.338</c:v>
+                  <c:v>0.322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.506</c:v>
+                  <c:v>0.414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.824</c:v>
+                  <c:v>0.604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.042</c:v>
+                  <c:v>0.839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.356</c:v>
+                  <c:v>1.102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.872</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.686</c:v>
+                  <c:v>1.825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.478</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.988</c:v>
+                  <c:v>2.605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.352</c:v>
+                  <c:v>2.928</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.768</c:v>
+                  <c:v>3.388</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.186</c:v>
+                  <c:v>3.813</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.786</c:v>
+                  <c:v>4.201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.036</c:v>
+                  <c:v>4.607</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.384</c:v>
+                  <c:v>4.909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.744</c:v>
+                  <c:v>5.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.956</c:v>
+                  <c:v>5.593</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.38</c:v>
+                  <c:v>5.854</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.452</c:v>
+                  <c:v>6.972</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.44</c:v>
+                  <c:v>8.164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.482</c:v>
+                  <c:v>9.179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.718</c:v>
+                  <c:v>10.226</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.512</c:v>
+                  <c:v>11.259</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.646</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.784</c:v>
+                  <c:v>13.339</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.238</c:v>
+                  <c:v>14.354</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.188</c:v>
+                  <c:v>15.299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.55</c:v>
+                  <c:v>16.199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.884</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.886</c:v>
+                  <c:v>21.101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.118</c:v>
+                  <c:v>23.455</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.432</c:v>
+                  <c:v>25.761</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.524</c:v>
+                  <c:v>28.05</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.294</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71.964</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>66.336</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>80.62</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>67.438</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>80.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>77.182</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>79.592</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>101.724</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>113.79</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>108.12</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>108.218</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>115.276</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>122.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>130.138</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>137.586</c:v>
+                  <c:v>30.356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qt_r_K_20_yahoomusic!$F$2:$F$53</c:f>
+              <c:f>qt_r_K_20_yahoomusic!$F$2:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.2066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6948</c:v>
+                  <c:v>0.6731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8096</c:v>
+                  <c:v>0.7908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8292</c:v>
+                  <c:v>0.8092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8514</c:v>
+                  <c:v>0.8356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8756</c:v>
+                  <c:v>0.8591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8866</c:v>
+                  <c:v>0.8708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.894</c:v>
+                  <c:v>0.8769</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8998</c:v>
+                  <c:v>0.8822</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9014</c:v>
+                  <c:v>0.8904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9048</c:v>
+                  <c:v>0.8948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9084</c:v>
+                  <c:v>0.8989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9136</c:v>
+                  <c:v>0.9021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9142</c:v>
+                  <c:v>0.9036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9158</c:v>
+                  <c:v>0.9065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.918</c:v>
+                  <c:v>0.9089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.9107</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.9121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9149</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9198</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.923</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9252</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.928</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9296</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.9338</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9362</c:v>
+                  <c:v>0.9251</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.943</c:v>
+                  <c:v>0.9304</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9506</c:v>
+                  <c:v>0.9324</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9664</c:v>
+                  <c:v>0.9389</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9824</c:v>
+                  <c:v>0.9514</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9922</c:v>
+                  <c:v>0.9562</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9966</c:v>
+                  <c:v>0.961</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9976</c:v>
+                  <c:v>0.9634</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9982</c:v>
+                  <c:v>0.9634</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9994</c:v>
+                  <c:v>0.9749</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9994</c:v>
+                  <c:v>0.9755</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9994</c:v>
+                  <c:v>0.9757</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9759</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9759</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.9998</c:v>
+                  <c:v>0.9759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -919,14 +756,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n_bridges=2000</c:v>
+                  <c:v>n_bridges=50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -948,335 +787,537 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qt_r_K_20_yahoomusic!$H$2:$H$53</c:f>
+              <c:f>qt_r_K_20_yahoomusic!$H$2:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33</c:v>
+                  <c:v>0.163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>0.357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.602</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.856</c:v>
+                  <c:v>0.473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.37</c:v>
+                  <c:v>0.618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.904</c:v>
+                  <c:v>0.839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.376</c:v>
+                  <c:v>1.115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.01</c:v>
+                  <c:v>1.427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.834</c:v>
+                  <c:v>1.822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.41</c:v>
+                  <c:v>2.139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.78</c:v>
+                  <c:v>2.604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.95</c:v>
+                  <c:v>2.924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.55</c:v>
+                  <c:v>3.369</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.206</c:v>
+                  <c:v>3.757</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.652</c:v>
+                  <c:v>4.157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.704</c:v>
+                  <c:v>4.524</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.228</c:v>
+                  <c:v>4.829</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.78</c:v>
+                  <c:v>5.183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.29</c:v>
+                  <c:v>5.483</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.078</c:v>
+                  <c:v>5.752</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.83</c:v>
+                  <c:v>6.864</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.822</c:v>
+                  <c:v>8.026</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.502</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.344</c:v>
+                  <c:v>10.38</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.954</c:v>
+                  <c:v>11.567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.464</c:v>
+                  <c:v>12.962</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.594</c:v>
+                  <c:v>14.102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.236</c:v>
+                  <c:v>15.287</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.422</c:v>
+                  <c:v>16.557</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.294</c:v>
+                  <c:v>17.38</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34.552</c:v>
+                  <c:v>19.938</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.652</c:v>
+                  <c:v>22.362</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.91</c:v>
+                  <c:v>24.791</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.936</c:v>
+                  <c:v>27.242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60.836</c:v>
+                  <c:v>29.622</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61.906</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>63.284</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>69.444</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>67.628</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70.56</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>78.928</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>87.644</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>95.214</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>104.228</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>112.278</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>121.176</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>130.102</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>138.942</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>147.446</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>156.432</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>166.068</c:v>
+                  <c:v>32.043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qt_r_K_20_yahoomusic!$I$2:$I$53</c:f>
+              <c:f>qt_r_K_20_yahoomusic!$I$2:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.2118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6948</c:v>
+                  <c:v>0.6779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8096</c:v>
+                  <c:v>0.7946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8292</c:v>
+                  <c:v>0.8126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8514</c:v>
+                  <c:v>0.838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8756</c:v>
+                  <c:v>0.862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8866</c:v>
+                  <c:v>0.8729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.894</c:v>
+                  <c:v>0.8802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8998</c:v>
+                  <c:v>0.8862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9014</c:v>
+                  <c:v>0.8925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9048</c:v>
+                  <c:v>0.8962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9084</c:v>
+                  <c:v>0.9007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9136</c:v>
+                  <c:v>0.9045</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9142</c:v>
+                  <c:v>0.9058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9158</c:v>
+                  <c:v>0.9102</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.918</c:v>
+                  <c:v>0.9118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.9138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.923</c:v>
+                  <c:v>0.9166</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9252</c:v>
+                  <c:v>0.9195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.928</c:v>
+                  <c:v>0.9225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9296</c:v>
+                  <c:v>0.9234</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9338</c:v>
+                  <c:v>0.9277</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9362</c:v>
+                  <c:v>0.9318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.943</c:v>
+                  <c:v>0.9385</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9506</c:v>
+                  <c:v>0.9434</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9664</c:v>
+                  <c:v>0.9595</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9824</c:v>
+                  <c:v>0.9765</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9922</c:v>
+                  <c:v>0.9842</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9966</c:v>
+                  <c:v>0.9905</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9976</c:v>
+                  <c:v>0.9916</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9982</c:v>
+                  <c:v>0.9918</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9923</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9926</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9998</c:v>
+                  <c:v>0.993</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.9998</c:v>
+                  <c:v>0.9931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0</c:v>
+                  <c:v>0.9931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_yahoomusic!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_yahoomusic!$K$2:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.931</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.791</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.811</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.863</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.473</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.264</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.069</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.179</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.903</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.471</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.557</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.032</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.548</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_yahoomusic!$L$2:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.2118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9047</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.906</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.914</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9168</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9228</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9237</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9403</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9457</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9958</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9963</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9967</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9968</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9969</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1293,6 +1334,7 @@
         <c:axId val="1592552800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1412,6 +1454,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2159,16 +2202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2453,15 +2496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2469,1215 +2512,1333 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C2">
-        <v>0.215</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="E2">
-        <v>0.11600000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="F2">
-        <v>0.215</v>
+        <v>0.20660000000000001</v>
       </c>
       <c r="H2">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I2">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.108</v>
+      </c>
+      <c r="L2">
+        <v>0.21179999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.30599999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="C3">
-        <v>0.69479999999999997</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="E3">
-        <v>0.18</v>
+        <v>0.158</v>
       </c>
       <c r="F3">
-        <v>0.69479999999999997</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="H3">
-        <v>0.33</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I3">
-        <v>0.69479999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.16</v>
+      </c>
+      <c r="L3">
+        <v>0.67789999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.438</v>
+        <v>0.248</v>
       </c>
       <c r="C4">
-        <v>0.80959999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="E4">
-        <v>0.254</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F4">
-        <v>0.80959999999999999</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="H4">
-        <v>0.45</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I4">
-        <v>0.80959999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.221</v>
+      </c>
+      <c r="L4">
+        <v>0.79459999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.59799999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="C5">
-        <v>0.82920000000000005</v>
+        <v>0.60170000000000001</v>
       </c>
       <c r="E5">
-        <v>0.33800000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F5">
-        <v>0.82920000000000005</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="H5">
-        <v>0.60199999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="I5">
-        <v>0.82920000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.81259999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.89200000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="C6">
-        <v>0.85140000000000005</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="E6">
-        <v>0.50600000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="F6">
-        <v>0.85140000000000005</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="H6">
-        <v>0.85599999999999998</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="I6">
-        <v>0.85140000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>1.4039999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C7">
-        <v>0.87560000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="E7">
-        <v>0.82399999999999995</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F7">
-        <v>0.87560000000000004</v>
+        <v>0.85909999999999997</v>
       </c>
       <c r="H7">
-        <v>1.37</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="I7">
-        <v>0.87560000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8">
-        <v>1.8740000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="C8">
-        <v>0.88660000000000005</v>
+        <v>0.7873</v>
       </c>
       <c r="E8">
-        <v>1.042</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="F8">
-        <v>0.88660000000000005</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="H8">
-        <v>1.9039999999999999</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="I8">
-        <v>0.88660000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.87280000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>2.4500000000000002</v>
+        <v>1.046</v>
       </c>
       <c r="C9">
-        <v>0.89400000000000002</v>
+        <v>0.80640000000000001</v>
       </c>
       <c r="E9">
-        <v>1.3560000000000001</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="F9">
-        <v>0.89400000000000002</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="H9">
-        <v>2.3759999999999999</v>
+        <v>1.115</v>
       </c>
       <c r="I9">
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="K9">
+        <v>1.121</v>
+      </c>
+      <c r="L9">
+        <v>0.88009999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41</v>
       </c>
       <c r="B10">
-        <v>3.206</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="C10">
-        <v>0.89980000000000004</v>
+        <v>0.82969999999999999</v>
       </c>
       <c r="E10">
-        <v>1.8720000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="F10">
-        <v>0.89980000000000004</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="H10">
-        <v>3.01</v>
+        <v>1.427</v>
       </c>
       <c r="I10">
-        <v>0.89980000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="K10">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.8861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46</v>
       </c>
       <c r="B11">
-        <v>4.08</v>
+        <v>1.768</v>
       </c>
       <c r="C11">
-        <v>0.90139999999999998</v>
+        <v>0.84019999999999995</v>
       </c>
       <c r="E11">
-        <v>2.6859999999999999</v>
+        <v>1.825</v>
       </c>
       <c r="F11">
-        <v>0.90139999999999998</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="H11">
-        <v>3.8340000000000001</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="I11">
-        <v>0.90139999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="K11">
+        <v>1.833</v>
+      </c>
+      <c r="L11">
+        <v>0.89239999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>51</v>
       </c>
       <c r="B12">
-        <v>4.71</v>
+        <v>2.1539999999999999</v>
       </c>
       <c r="C12">
-        <v>0.90480000000000005</v>
+        <v>0.85009999999999997</v>
       </c>
       <c r="E12">
-        <v>2.4780000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="F12">
-        <v>0.90480000000000005</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="H12">
-        <v>4.41</v>
+        <v>2.1389999999999998</v>
       </c>
       <c r="I12">
-        <v>0.90480000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8962</v>
+      </c>
+      <c r="K12">
+        <v>2.153</v>
+      </c>
+      <c r="L12">
+        <v>0.89610000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>56</v>
       </c>
       <c r="B13">
-        <v>5.6139999999999999</v>
+        <v>2.645</v>
       </c>
       <c r="C13">
-        <v>0.90839999999999999</v>
+        <v>0.85640000000000005</v>
       </c>
       <c r="E13">
-        <v>2.988</v>
+        <v>2.605</v>
       </c>
       <c r="F13">
-        <v>0.90839999999999999</v>
+        <v>0.89890000000000003</v>
       </c>
       <c r="H13">
-        <v>4.78</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="I13">
-        <v>0.90839999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="K13">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.90090000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>61</v>
       </c>
       <c r="B14">
-        <v>6.32</v>
+        <v>3.0590000000000002</v>
       </c>
       <c r="C14">
-        <v>0.91359999999999997</v>
+        <v>0.8589</v>
       </c>
       <c r="E14">
-        <v>3.3519999999999999</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="F14">
-        <v>0.91359999999999997</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="H14">
-        <v>5.95</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="I14">
-        <v>0.91359999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="K14">
+        <v>2.931</v>
+      </c>
+      <c r="L14">
+        <v>0.90469999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66</v>
       </c>
       <c r="B15">
-        <v>5.2679999999999998</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="C15">
-        <v>0.91420000000000001</v>
+        <v>0.86009999999999998</v>
       </c>
       <c r="E15">
-        <v>3.7679999999999998</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="F15">
-        <v>0.91420000000000001</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="H15">
-        <v>6.55</v>
+        <v>3.3690000000000002</v>
       </c>
       <c r="I15">
-        <v>0.91420000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="K15">
+        <v>3.3780000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>71</v>
       </c>
       <c r="B16">
-        <v>8.7059999999999995</v>
+        <v>3.972</v>
       </c>
       <c r="C16">
-        <v>0.91579999999999995</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="E16">
-        <v>4.1859999999999999</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="F16">
-        <v>0.91579999999999995</v>
+        <v>0.90649999999999997</v>
       </c>
       <c r="H16">
-        <v>6.2060000000000004</v>
+        <v>3.7570000000000001</v>
       </c>
       <c r="I16">
-        <v>0.91579999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="K16">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.91039999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17">
-        <v>10.266</v>
+        <v>4.3860000000000001</v>
       </c>
       <c r="C17">
-        <v>0.91800000000000004</v>
+        <v>0.86760000000000004</v>
       </c>
       <c r="E17">
-        <v>4.7859999999999996</v>
+        <v>4.2009999999999996</v>
       </c>
       <c r="F17">
-        <v>0.91800000000000004</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="H17">
-        <v>6.6520000000000001</v>
+        <v>4.157</v>
       </c>
       <c r="I17">
-        <v>0.91800000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="K17">
+        <v>4.1769999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
       <c r="B18">
-        <v>9.5559999999999992</v>
+        <v>4.8440000000000003</v>
       </c>
       <c r="C18">
-        <v>0.9194</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="E18">
-        <v>5.0359999999999996</v>
+        <v>4.6070000000000002</v>
       </c>
       <c r="F18">
-        <v>0.9194</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="H18">
-        <v>6.7039999999999997</v>
+        <v>4.524</v>
       </c>
       <c r="I18">
-        <v>0.9194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="K18">
+        <v>4.5490000000000004</v>
+      </c>
+      <c r="L18">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>86</v>
       </c>
       <c r="B19">
-        <v>7.492</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="C19">
-        <v>0.92300000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="E19">
-        <v>5.3840000000000003</v>
+        <v>4.9089999999999998</v>
       </c>
       <c r="F19">
-        <v>0.92300000000000004</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="H19">
-        <v>9.2279999999999998</v>
+        <v>4.8289999999999997</v>
       </c>
       <c r="I19">
-        <v>0.92300000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="K19">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.91679999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>91</v>
       </c>
       <c r="B20">
-        <v>7.3739999999999997</v>
+        <v>5.569</v>
       </c>
       <c r="C20">
-        <v>0.92520000000000002</v>
+        <v>0.87060000000000004</v>
       </c>
       <c r="E20">
-        <v>5.7439999999999998</v>
+        <v>5.24</v>
       </c>
       <c r="F20">
-        <v>0.92520000000000002</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="H20">
-        <v>9.7799999999999994</v>
+        <v>5.1829999999999998</v>
       </c>
       <c r="I20">
-        <v>0.92520000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="K20">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="L20">
+        <v>0.91969999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
       <c r="B21">
-        <v>7.2220000000000004</v>
+        <v>5.8760000000000003</v>
       </c>
       <c r="C21">
-        <v>0.92800000000000005</v>
+        <v>0.87309999999999999</v>
       </c>
       <c r="E21">
-        <v>5.9560000000000004</v>
+        <v>5.593</v>
       </c>
       <c r="F21">
-        <v>0.92800000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H21">
-        <v>8.2899999999999991</v>
+        <v>5.4829999999999997</v>
       </c>
       <c r="I21">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="K21">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.92279999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22">
-        <v>12.528</v>
+        <v>6.1289999999999996</v>
       </c>
       <c r="C22">
-        <v>0.92959999999999998</v>
+        <v>0.87529999999999997</v>
       </c>
       <c r="E22">
-        <v>6.38</v>
+        <v>5.8540000000000001</v>
       </c>
       <c r="F22">
-        <v>0.92959999999999998</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="H22">
-        <v>8.0779999999999994</v>
+        <v>5.7519999999999998</v>
       </c>
       <c r="I22">
-        <v>0.92959999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.9234</v>
+      </c>
+      <c r="K22">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.92369999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>120</v>
       </c>
       <c r="B23">
-        <v>9.1120000000000001</v>
+        <v>7.4450000000000003</v>
       </c>
       <c r="C23">
-        <v>0.93379999999999996</v>
+        <v>0.875</v>
       </c>
       <c r="E23">
-        <v>8.452</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="F23">
-        <v>0.93379999999999996</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H23">
-        <v>8.83</v>
+        <v>6.8639999999999999</v>
       </c>
       <c r="I23">
-        <v>0.93379999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="K23">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="L23">
+        <v>0.92830000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>140</v>
       </c>
       <c r="B24">
-        <v>10.242000000000001</v>
+        <v>8.4960000000000004</v>
       </c>
       <c r="C24">
-        <v>0.93620000000000003</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="E24">
-        <v>9.44</v>
+        <v>8.1639999999999997</v>
       </c>
       <c r="F24">
-        <v>0.93620000000000003</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="H24">
-        <v>12.821999999999999</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="I24">
-        <v>0.93620000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="K24">
+        <v>7.9909999999999997</v>
+      </c>
+      <c r="L24">
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>160</v>
       </c>
       <c r="B25">
-        <v>12.866</v>
+        <v>9.49</v>
       </c>
       <c r="C25">
-        <v>0.94299999999999995</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="E25">
-        <v>14.481999999999999</v>
+        <v>9.1790000000000003</v>
       </c>
       <c r="F25">
-        <v>0.94299999999999995</v>
+        <v>0.9304</v>
       </c>
       <c r="H25">
-        <v>14.502000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="I25">
-        <v>0.94299999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.9385</v>
+      </c>
+      <c r="K25">
+        <v>9.3119999999999994</v>
+      </c>
+      <c r="L25">
+        <v>0.94030000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>180</v>
       </c>
       <c r="B26">
-        <v>17.495999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="C26">
-        <v>0.95040000000000002</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="E26">
-        <v>13.718</v>
+        <v>10.226000000000001</v>
       </c>
       <c r="F26">
-        <v>0.9506</v>
+        <v>0.93240000000000001</v>
       </c>
       <c r="H26">
-        <v>16.344000000000001</v>
+        <v>10.38</v>
       </c>
       <c r="I26">
-        <v>0.9506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="K26">
+        <v>10.473000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.94569999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>200</v>
       </c>
       <c r="B27">
-        <v>20.948</v>
+        <v>11.362</v>
       </c>
       <c r="C27">
-        <v>0.96619999999999995</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="E27">
-        <v>15.512</v>
+        <v>11.259</v>
       </c>
       <c r="F27">
-        <v>0.96640000000000004</v>
+        <v>0.93889999999999996</v>
       </c>
       <c r="H27">
-        <v>15.954000000000001</v>
+        <v>11.567</v>
       </c>
       <c r="I27">
-        <v>0.96640000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="K27">
+        <v>11.760999999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>220</v>
       </c>
       <c r="B28">
-        <v>23.148</v>
+        <v>12.292</v>
       </c>
       <c r="C28">
-        <v>0.98219999999999996</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="E28">
-        <v>20.646000000000001</v>
+        <v>12.39</v>
       </c>
       <c r="F28">
-        <v>0.98240000000000005</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="H28">
-        <v>20.463999999999999</v>
+        <v>12.962</v>
       </c>
       <c r="I28">
-        <v>0.98240000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="K28">
+        <v>13.263999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.97940000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>240</v>
       </c>
       <c r="B29">
-        <v>17.974</v>
+        <v>13.185</v>
       </c>
       <c r="C29">
-        <v>0.99180000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="E29">
-        <v>21.783999999999999</v>
+        <v>13.339</v>
       </c>
       <c r="F29">
-        <v>0.99219999999999997</v>
+        <v>0.95620000000000005</v>
       </c>
       <c r="H29">
-        <v>20.594000000000001</v>
+        <v>14.102</v>
       </c>
       <c r="I29">
-        <v>0.99219999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="K29">
+        <v>14.57</v>
+      </c>
+      <c r="L29">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>260</v>
       </c>
       <c r="B30">
-        <v>19.085999999999999</v>
+        <v>14.122999999999999</v>
       </c>
       <c r="C30">
-        <v>0.99619999999999997</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="E30">
-        <v>22.238</v>
+        <v>14.353999999999999</v>
       </c>
       <c r="F30">
-        <v>0.99660000000000004</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="H30">
-        <v>26.236000000000001</v>
+        <v>15.287000000000001</v>
       </c>
       <c r="I30">
-        <v>0.99660000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="K30">
+        <v>15.895</v>
+      </c>
+      <c r="L30">
+        <v>0.99409999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>280</v>
       </c>
       <c r="B31">
-        <v>20.795999999999999</v>
+        <v>15.004</v>
       </c>
       <c r="C31">
-        <v>0.99719999999999998</v>
+        <v>0.878</v>
       </c>
       <c r="E31">
-        <v>23.187999999999999</v>
+        <v>15.298999999999999</v>
       </c>
       <c r="F31">
-        <v>0.99760000000000004</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="H31">
-        <v>30.422000000000001</v>
+        <v>16.556999999999999</v>
       </c>
       <c r="I31">
-        <v>0.99760000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="K31">
+        <v>17.068999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
       <c r="B32">
-        <v>26.638000000000002</v>
+        <v>15.874000000000001</v>
       </c>
       <c r="C32">
-        <v>0.99780000000000002</v>
+        <v>0.87809999999999999</v>
       </c>
       <c r="E32">
-        <v>25.55</v>
+        <v>16.199000000000002</v>
       </c>
       <c r="F32">
-        <v>0.99819999999999998</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="H32">
-        <v>28.294</v>
+        <v>17.38</v>
       </c>
       <c r="I32">
-        <v>0.99819999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="K32">
+        <v>18.178999999999998</v>
+      </c>
+      <c r="L32">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>350</v>
       </c>
       <c r="B33">
-        <v>34.442</v>
+        <v>18.097000000000001</v>
       </c>
       <c r="C33">
-        <v>0.99839999999999995</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="E33">
-        <v>41.884</v>
+        <v>18.8</v>
       </c>
       <c r="F33">
-        <v>0.99939999999999996</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="H33">
-        <v>34.552</v>
+        <v>19.937999999999999</v>
       </c>
       <c r="I33">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="K33">
+        <v>20.902999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>400</v>
       </c>
       <c r="B34">
-        <v>39.545999999999999</v>
+        <v>20.241</v>
       </c>
       <c r="C34">
-        <v>0.99839999999999995</v>
+        <v>0.87970000000000004</v>
       </c>
       <c r="E34">
-        <v>33.886000000000003</v>
+        <v>21.100999999999999</v>
       </c>
       <c r="F34">
-        <v>0.99939999999999996</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="H34">
-        <v>38.652000000000001</v>
+        <v>22.361999999999998</v>
       </c>
       <c r="I34">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="K34">
+        <v>23.471</v>
+      </c>
+      <c r="L34">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>450</v>
       </c>
       <c r="B35">
-        <v>37.363999999999997</v>
+        <v>22.437999999999999</v>
       </c>
       <c r="C35">
-        <v>0.99839999999999995</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="E35">
-        <v>39.118000000000002</v>
+        <v>23.454999999999998</v>
       </c>
       <c r="F35">
-        <v>0.99939999999999996</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="H35">
-        <v>42.91</v>
+        <v>24.791</v>
       </c>
       <c r="I35">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="K35">
+        <v>26.012</v>
+      </c>
+      <c r="L35">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>500</v>
       </c>
       <c r="B36">
-        <v>39.298000000000002</v>
+        <v>24.66</v>
       </c>
       <c r="C36">
-        <v>0.99860000000000004</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="E36">
-        <v>41.432000000000002</v>
+        <v>25.760999999999999</v>
       </c>
       <c r="F36">
-        <v>0.99960000000000004</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="H36">
-        <v>50.936</v>
+        <v>27.242000000000001</v>
       </c>
       <c r="I36">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K36">
+        <v>28.556999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>550</v>
       </c>
       <c r="B37">
-        <v>49.648000000000003</v>
+        <v>28.757000000000001</v>
       </c>
       <c r="C37">
-        <v>0.99860000000000004</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="E37">
-        <v>44.524000000000001</v>
+        <v>28.05</v>
       </c>
       <c r="F37">
-        <v>0.99960000000000004</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="H37">
-        <v>60.835999999999999</v>
+        <v>29.622</v>
       </c>
       <c r="I37">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="K37">
+        <v>31.032</v>
+      </c>
+      <c r="L37">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>600</v>
       </c>
       <c r="B38">
-        <v>44.451999999999998</v>
+        <v>29.318999999999999</v>
       </c>
       <c r="C38">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E38">
-        <v>48.293999999999997</v>
+        <v>30.356000000000002</v>
       </c>
       <c r="F38">
-        <v>0.99980000000000002</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="H38">
-        <v>61.905999999999999</v>
+        <v>32.042999999999999</v>
       </c>
       <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="K38">
+        <v>33.548000000000002</v>
+      </c>
+      <c r="L38">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>650</v>
       </c>
       <c r="B39">
-        <v>44.28</v>
+        <v>31.17</v>
       </c>
       <c r="C39">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E39">
-        <v>71.963999999999999</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="F39">
-        <v>0.99980000000000002</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="H39">
-        <v>63.283999999999999</v>
+        <v>34.521000000000001</v>
       </c>
       <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="K39">
+        <v>36.07</v>
+      </c>
+      <c r="L39">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>700</v>
       </c>
       <c r="B40">
-        <v>47.155999999999999</v>
+        <v>33.274999999999999</v>
       </c>
       <c r="C40">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E40">
-        <v>66.335999999999999</v>
+        <v>34.853000000000002</v>
       </c>
       <c r="F40">
-        <v>0.99980000000000002</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="H40">
-        <v>69.444000000000003</v>
+        <v>36.92</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="K40">
+        <v>38.595999999999997</v>
+      </c>
+      <c r="L40">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>750</v>
       </c>
       <c r="B41">
-        <v>50.216000000000001</v>
+        <v>35.384999999999998</v>
       </c>
       <c r="C41">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E41">
-        <v>80.62</v>
+        <v>37.091000000000001</v>
       </c>
       <c r="F41">
-        <v>0.99980000000000002</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="H41">
-        <v>67.628</v>
+        <v>39.359000000000002</v>
       </c>
       <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="K41">
+        <v>41.143000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>800</v>
       </c>
       <c r="B42">
-        <v>60.69</v>
+        <v>37.478999999999999</v>
       </c>
       <c r="C42">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E42">
-        <v>67.438000000000002</v>
+        <v>39.308999999999997</v>
       </c>
       <c r="F42">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H42">
-        <v>70.56</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K42">
+        <v>43.67</v>
+      </c>
+      <c r="L42">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="B43">
-        <v>69.097999999999999</v>
+        <v>54.261000000000003</v>
       </c>
       <c r="C43">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E43">
-        <v>80.8</v>
+        <v>43.716000000000001</v>
       </c>
       <c r="F43">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H43">
-        <v>78.927999999999997</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K43">
+        <v>48.753999999999998</v>
+      </c>
+      <c r="L43">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="B44">
-        <v>93.245999999999995</v>
+        <v>71.052000000000007</v>
       </c>
       <c r="C44">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E44">
-        <v>77.182000000000002</v>
+        <v>48.152000000000001</v>
       </c>
       <c r="F44">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H44">
-        <v>87.644000000000005</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K44">
+        <v>53.793999999999997</v>
+      </c>
+      <c r="L44">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="B45">
-        <v>81.378</v>
+        <v>87.864999999999995</v>
       </c>
       <c r="C45">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E45">
-        <v>79.591999999999999</v>
+        <v>52.561</v>
       </c>
       <c r="F45">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H45">
-        <v>95.213999999999999</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K45">
+        <v>58.953000000000003</v>
+      </c>
+      <c r="L45">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="B46">
-        <v>93.334000000000003</v>
+        <v>104.694</v>
       </c>
       <c r="C46">
-        <v>0.99880000000000002</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="E46">
-        <v>101.724</v>
+        <v>56.97</v>
       </c>
       <c r="F46">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H46">
-        <v>104.22799999999999</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K46">
+        <v>64.022999999999996</v>
+      </c>
+      <c r="L46">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="B47">
-        <v>84.512</v>
+        <v>121.629</v>
       </c>
       <c r="C47">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E47">
-        <v>113.79</v>
-      </c>
-      <c r="F47">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H47">
-        <v>112.27800000000001</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="B48">
-        <v>97.591999999999999</v>
+        <v>138.49600000000001</v>
       </c>
       <c r="C48">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E48">
-        <v>108.12</v>
-      </c>
-      <c r="F48">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H48">
-        <v>121.176</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="B49">
-        <v>109.712</v>
+        <v>155.30199999999999</v>
       </c>
       <c r="C49">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E49">
-        <v>108.218</v>
-      </c>
-      <c r="F49">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H49">
-        <v>130.102</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1600</v>
-      </c>
-      <c r="B50">
-        <v>112.55800000000001</v>
-      </c>
-      <c r="C50">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E50">
-        <v>115.276</v>
-      </c>
-      <c r="F50">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H50">
-        <v>138.94200000000001</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1700</v>
-      </c>
-      <c r="B51">
-        <v>112.458</v>
-      </c>
-      <c r="C51">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E51">
-        <v>122.49</v>
-      </c>
-      <c r="F51">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H51">
-        <v>147.446</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1800</v>
-      </c>
-      <c r="B52">
-        <v>116.46</v>
-      </c>
-      <c r="C52">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E52">
-        <v>130.13800000000001</v>
-      </c>
-      <c r="F52">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H52">
-        <v>156.43199999999999</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1900</v>
-      </c>
-      <c r="B53">
-        <v>123.11799999999999</v>
-      </c>
-      <c r="C53">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E53">
-        <v>137.58600000000001</v>
-      </c>
-      <c r="F53">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H53">
-        <v>166.06800000000001</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
+        <v>0.88029999999999997</v>
       </c>
     </row>
   </sheetData>
